--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H2">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I2">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J2">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>94.67573214913239</v>
+        <v>459.3520842462186</v>
       </c>
       <c r="R2">
-        <v>94.67573214913239</v>
+        <v>4134.168758215968</v>
       </c>
       <c r="S2">
-        <v>0.002079136450597847</v>
+        <v>0.008494984522017773</v>
       </c>
       <c r="T2">
-        <v>0.002079136450597847</v>
+        <v>0.008494984522017772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H3">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I3">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J3">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>2419.552504091103</v>
+        <v>3523.265919899669</v>
       </c>
       <c r="R3">
-        <v>2419.552504091103</v>
+        <v>31709.39327909702</v>
       </c>
       <c r="S3">
-        <v>0.05313483921589309</v>
+        <v>0.06515718657424768</v>
       </c>
       <c r="T3">
-        <v>0.05313483921589309</v>
+        <v>0.06515718657424766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H4">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I4">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J4">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>1352.947461943244</v>
+        <v>2159.193788965429</v>
       </c>
       <c r="R4">
-        <v>1352.947461943244</v>
+        <v>19432.74410068886</v>
       </c>
       <c r="S4">
-        <v>0.029711546137706</v>
+        <v>0.03993084704817952</v>
       </c>
       <c r="T4">
-        <v>0.029711546137706</v>
+        <v>0.03993084704817952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H5">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I5">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J5">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>401.8231462554351</v>
+        <v>585.8176710832853</v>
       </c>
       <c r="R5">
-        <v>401.8231462554351</v>
+        <v>5272.359039749567</v>
       </c>
       <c r="S5">
-        <v>0.008824279792815323</v>
+        <v>0.01083376394545656</v>
       </c>
       <c r="T5">
-        <v>0.008824279792815323</v>
+        <v>0.01083376394545656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H6">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I6">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J6">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>338.0514950788274</v>
+        <v>1155.600119549795</v>
       </c>
       <c r="R6">
-        <v>338.0514950788274</v>
+        <v>10400.40107594816</v>
       </c>
       <c r="S6">
-        <v>0.007423815687956419</v>
+        <v>0.02137098201116567</v>
       </c>
       <c r="T6">
-        <v>0.007423815687956419</v>
+        <v>0.02137098201116567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H7">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I7">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J7">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>8639.313611447087</v>
+        <v>8863.542058207811</v>
       </c>
       <c r="R7">
-        <v>8639.313611447087</v>
+        <v>79771.8785238703</v>
       </c>
       <c r="S7">
-        <v>0.1897245622501413</v>
+        <v>0.1639170805511562</v>
       </c>
       <c r="T7">
-        <v>0.1897245622501413</v>
+        <v>0.1639170805511562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H8">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I8">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J8">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>4830.867445023606</v>
+        <v>5431.921800799285</v>
       </c>
       <c r="R8">
-        <v>4830.867445023606</v>
+        <v>48887.29620719356</v>
       </c>
       <c r="S8">
-        <v>0.1060887765529376</v>
+        <v>0.1004547344077512</v>
       </c>
       <c r="T8">
-        <v>0.1060887765529376</v>
+        <v>0.1004547344077512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H9">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I9">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J9">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>1434.759597474874</v>
+        <v>1473.75182121817</v>
       </c>
       <c r="R9">
-        <v>1434.759597474874</v>
+        <v>13263.76639096353</v>
       </c>
       <c r="S9">
-        <v>0.03150819021136497</v>
+        <v>0.02725469055199333</v>
       </c>
       <c r="T9">
-        <v>0.03150819021136497</v>
+        <v>0.02725469055199332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H10">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I10">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J10">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>420.6734431605473</v>
+        <v>1540.901084255763</v>
       </c>
       <c r="R10">
-        <v>420.6734431605473</v>
+        <v>13868.10975830187</v>
       </c>
       <c r="S10">
-        <v>0.009238243735954154</v>
+        <v>0.02849650912587727</v>
       </c>
       <c r="T10">
-        <v>0.009238243735954154</v>
+        <v>0.02849650912587727</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H11">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I11">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J11">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>10750.81712809396</v>
+        <v>11818.83017904141</v>
       </c>
       <c r="R11">
-        <v>10750.81712809396</v>
+        <v>106369.4716113727</v>
       </c>
       <c r="S11">
-        <v>0.236094459026971</v>
+        <v>0.2185704231734741</v>
       </c>
       <c r="T11">
-        <v>0.236094459026971</v>
+        <v>0.218570423173474</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H12">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I12">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J12">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>6011.562354062065</v>
+        <v>7243.036800398556</v>
       </c>
       <c r="R12">
-        <v>6011.562354062065</v>
+        <v>65187.331203587</v>
       </c>
       <c r="S12">
-        <v>0.1320175522454281</v>
+        <v>0.1339484191363988</v>
       </c>
       <c r="T12">
-        <v>0.1320175522454281</v>
+        <v>0.1339484191363988</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H13">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I13">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J13">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>1785.42402197232</v>
+        <v>1965.131139068846</v>
       </c>
       <c r="R13">
-        <v>1785.42402197232</v>
+        <v>17686.18025161962</v>
       </c>
       <c r="S13">
-        <v>0.03920899347267082</v>
+        <v>0.03634196770331172</v>
       </c>
       <c r="T13">
-        <v>0.03920899347267082</v>
+        <v>0.03634196770331172</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H14">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I14">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J14">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>156.4759430693038</v>
+        <v>536.189509794404</v>
       </c>
       <c r="R14">
-        <v>156.4759430693038</v>
+        <v>4825.705588149636</v>
       </c>
       <c r="S14">
-        <v>0.003436306532751166</v>
+        <v>0.00991597021715104</v>
       </c>
       <c r="T14">
-        <v>0.003436306532751166</v>
+        <v>0.00991597021715104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H15">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I15">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J15">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>3998.931418739712</v>
+        <v>4112.614900978073</v>
       </c>
       <c r="R15">
-        <v>3998.931418739712</v>
+        <v>37013.53410880265</v>
       </c>
       <c r="S15">
-        <v>0.08781895727033881</v>
+        <v>0.07605625646862618</v>
       </c>
       <c r="T15">
-        <v>0.08781895727033881</v>
+        <v>0.07605625646862617</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H16">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I16">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J16">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>2236.092874331473</v>
+        <v>2520.369666236092</v>
       </c>
       <c r="R16">
-        <v>2236.092874331473</v>
+        <v>22683.32699612483</v>
       </c>
       <c r="S16">
-        <v>0.04910595457156211</v>
+        <v>0.0466102191297828</v>
       </c>
       <c r="T16">
-        <v>0.04910595457156211</v>
+        <v>0.0466102191297828</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H17">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I17">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J17">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>664.1158650703943</v>
+        <v>683.809436507704</v>
       </c>
       <c r="R17">
-        <v>664.1158650703943</v>
+        <v>6154.284928569336</v>
       </c>
       <c r="S17">
-        <v>0.01458438684491158</v>
+        <v>0.01264596543341026</v>
       </c>
       <c r="T17">
-        <v>0.01458438684491158</v>
+        <v>0.01264596543341026</v>
       </c>
     </row>
   </sheetData>
